--- a/RequestsTest/cases/lux项目接口测试用例.xlsx
+++ b/RequestsTest/cases/lux项目接口测试用例.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SNake\VSCodeProjects\ljtest201910\RequestsTest\cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D563A025-CFCE-484D-B73D-71662A35A691}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{464890C8-3AAA-4E6C-9C1F-613988773F9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6648" yWindow="3276" windowWidth="21240" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="注册模块" sheetId="1" r:id="rId1"/>
@@ -487,7 +487,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
